--- a/data/sum_stats_pre.xlsx
+++ b/data/sum_stats_pre.xlsx
@@ -978,256 +978,256 @@
         <v>95</v>
       </c>
       <c r="B2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="C2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="D2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="E2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="F2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="G2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="H2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="I2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="J2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="K2">
-        <v>4851</v>
+        <v>4825</v>
       </c>
       <c r="L2">
-        <v>5308</v>
+        <v>5277</v>
       </c>
       <c r="M2">
-        <v>5842</v>
+        <v>5809</v>
       </c>
       <c r="N2">
-        <v>5803</v>
+        <v>5769</v>
       </c>
       <c r="O2">
-        <v>5308</v>
+        <v>5277</v>
       </c>
       <c r="P2">
-        <v>4916</v>
+        <v>4885</v>
       </c>
       <c r="Q2">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="R2">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="S2">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="T2">
-        <v>3081</v>
+        <v>3056</v>
       </c>
       <c r="U2">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="V2">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="W2">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="X2">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="Y2">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="Z2">
-        <v>2800</v>
+        <v>2790</v>
       </c>
       <c r="AA2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AB2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="AC2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="AD2">
-        <v>3200</v>
+        <v>3177</v>
       </c>
       <c r="AE2">
-        <v>4922</v>
+        <v>4868</v>
       </c>
       <c r="AF2">
-        <v>4897</v>
+        <v>4843</v>
       </c>
       <c r="AG2">
-        <v>4922</v>
+        <v>4868</v>
       </c>
       <c r="AH2">
-        <v>5674</v>
+        <v>5645</v>
       </c>
       <c r="AI2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AJ2">
-        <v>5617</v>
+        <v>5588</v>
       </c>
       <c r="AK2">
-        <v>5583</v>
+        <v>5536</v>
       </c>
       <c r="AL2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN2">
-        <v>5638</v>
+        <v>5605</v>
       </c>
       <c r="AO2">
-        <v>5360</v>
+        <v>5332</v>
       </c>
       <c r="AP2">
-        <v>5367</v>
+        <v>5339</v>
       </c>
       <c r="AQ2">
-        <v>6342</v>
+        <v>6270</v>
       </c>
       <c r="AR2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AS2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AT2">
-        <v>6367</v>
+        <v>6314</v>
       </c>
       <c r="AU2">
-        <v>6367</v>
+        <v>6314</v>
       </c>
       <c r="AV2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="AW2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="AX2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AY2">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AZ2">
         <v>2944</v>
       </c>
       <c r="BA2">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="BB2">
-        <v>6411</v>
+        <v>6339</v>
       </c>
       <c r="BC2">
-        <v>1832</v>
+        <v>1812</v>
       </c>
       <c r="BD2">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="BE2">
-        <v>6102</v>
+        <v>6066</v>
       </c>
       <c r="BF2">
-        <v>5002</v>
+        <v>4969</v>
       </c>
       <c r="BG2">
-        <v>6005</v>
+        <v>5965</v>
       </c>
       <c r="BH2">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="BI2">
-        <v>5203</v>
+        <v>5159</v>
       </c>
       <c r="BJ2">
-        <v>5203</v>
+        <v>5159</v>
       </c>
       <c r="BK2">
-        <v>5203</v>
+        <v>5159</v>
       </c>
       <c r="BL2">
-        <v>5370</v>
+        <v>5321</v>
       </c>
       <c r="BM2">
-        <v>5370</v>
+        <v>5321</v>
       </c>
       <c r="BN2">
-        <v>5370</v>
+        <v>5321</v>
       </c>
       <c r="BO2">
-        <v>6415</v>
+        <v>6343</v>
       </c>
       <c r="BP2">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="BQ2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="BR2">
-        <v>4327</v>
+        <v>4304</v>
       </c>
       <c r="BS2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="BT2">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="BU2">
-        <v>4521</v>
+        <v>4492</v>
       </c>
       <c r="BV2">
-        <v>6188</v>
+        <v>6153</v>
       </c>
       <c r="BW2">
-        <v>6188</v>
+        <v>6153</v>
       </c>
       <c r="BX2">
-        <v>6188</v>
+        <v>6153</v>
       </c>
       <c r="BY2">
-        <v>6158</v>
+        <v>6123</v>
       </c>
       <c r="BZ2">
-        <v>6158</v>
+        <v>6123</v>
       </c>
       <c r="CA2">
-        <v>6188</v>
+        <v>6153</v>
       </c>
       <c r="CB2">
-        <v>6188</v>
+        <v>6153</v>
       </c>
       <c r="CC2">
-        <v>6188</v>
+        <v>6153</v>
       </c>
       <c r="CD2">
-        <v>6188</v>
+        <v>6153</v>
       </c>
       <c r="CE2">
-        <v>4797</v>
+        <v>4767</v>
       </c>
       <c r="CF2">
-        <v>4859</v>
+        <v>4829</v>
       </c>
       <c r="CG2">
-        <v>4797</v>
+        <v>4767</v>
       </c>
       <c r="CH2">
         <v>1069</v>
@@ -1236,31 +1236,31 @@
         <v>1069</v>
       </c>
       <c r="CJ2">
-        <v>6219</v>
+        <v>6147</v>
       </c>
       <c r="CK2">
-        <v>6002</v>
+        <v>5931</v>
       </c>
       <c r="CL2">
-        <v>5785</v>
+        <v>5715</v>
       </c>
       <c r="CM2">
-        <v>5351</v>
+        <v>5283</v>
       </c>
       <c r="CN2">
-        <v>4268</v>
+        <v>4205</v>
       </c>
       <c r="CO2">
-        <v>6219</v>
+        <v>6147</v>
       </c>
       <c r="CP2">
-        <v>6219</v>
+        <v>6147</v>
       </c>
       <c r="CQ2">
-        <v>6219</v>
+        <v>6147</v>
       </c>
       <c r="CR2">
-        <v>6043</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="3" spans="1:96">
@@ -1268,256 +1268,256 @@
         <v>96</v>
       </c>
       <c r="B3">
-        <v>2003.615133623369</v>
+        <v>2003.665409398083</v>
       </c>
       <c r="C3">
-        <v>16.66112492231199</v>
+        <v>16.85227094137985</v>
       </c>
       <c r="D3">
-        <v>2.208514605344935</v>
+        <v>2.233851956624234</v>
       </c>
       <c r="E3">
-        <v>4.837632069608452</v>
+        <v>4.893132170359893</v>
       </c>
       <c r="F3">
-        <v>23.70727159726538</v>
+        <v>23.97925506836398</v>
       </c>
       <c r="G3">
-        <v>0.1819453076444997</v>
+        <v>0.184032688983184</v>
       </c>
       <c r="H3">
-        <v>0.09912989434431324</v>
+        <v>0.1002671695741003</v>
       </c>
       <c r="I3">
-        <v>0.1761963952765693</v>
+        <v>0.1782178217821782</v>
       </c>
       <c r="J3">
-        <v>0.2490677439403356</v>
+        <v>0.2519251925192519</v>
       </c>
       <c r="K3">
-        <v>993090626.5277363</v>
+        <v>997018234.6928071</v>
       </c>
       <c r="L3">
-        <v>46.83502842198724</v>
+        <v>46.8648417240371</v>
       </c>
       <c r="M3">
-        <v>11977.43963327612</v>
+        <v>12036.49623701195</v>
       </c>
       <c r="N3">
-        <v>2.007394686768054</v>
+        <v>2.002949192649391</v>
       </c>
       <c r="O3">
-        <v>40.44586435615911</v>
+        <v>40.510177628722</v>
       </c>
       <c r="P3">
-        <v>28.41997600530525</v>
+        <v>28.17261823829161</v>
       </c>
       <c r="Q3">
-        <v>13.71245242280065</v>
+        <v>13.64718218308531</v>
       </c>
       <c r="R3">
-        <v>17.3117649586797</v>
+        <v>17.24210079166278</v>
       </c>
       <c r="S3">
-        <v>15.59779465291474</v>
+        <v>15.55658368074791</v>
       </c>
       <c r="T3">
-        <v>10.56094770099522</v>
+        <v>10.61879931821044</v>
       </c>
       <c r="U3">
-        <v>14.96402845243554</v>
+        <v>14.98581966102043</v>
       </c>
       <c r="V3">
-        <v>13.07684455555747</v>
+        <v>13.10783389211246</v>
       </c>
       <c r="W3">
-        <v>51.5955349733759</v>
+        <v>51.74727592077084</v>
       </c>
       <c r="X3">
-        <v>55.31089354632596</v>
+        <v>55.43062998929344</v>
       </c>
       <c r="Y3">
-        <v>53.28023364118894</v>
+        <v>53.41503578441834</v>
       </c>
       <c r="Z3">
-        <v>4.453038861165558</v>
+        <v>4.451337366022903</v>
       </c>
       <c r="AA3">
-        <v>78.3129424922172</v>
+        <v>78.27145975889721</v>
       </c>
       <c r="AB3">
-        <v>85.83079070311803</v>
+        <v>85.78658653456529</v>
       </c>
       <c r="AC3">
-        <v>81.95575439460204</v>
+        <v>81.91200754010968</v>
       </c>
       <c r="AD3">
-        <v>61.15535309188962</v>
+        <v>60.96261878943872</v>
       </c>
       <c r="AE3">
-        <v>80.07855944799948</v>
+        <v>79.88578556798674</v>
       </c>
       <c r="AF3">
-        <v>73.68047741042886</v>
+        <v>73.44742990269573</v>
       </c>
       <c r="AG3">
-        <v>89.88861582580029</v>
+        <v>89.77690256716352</v>
       </c>
       <c r="AH3">
-        <v>37.89529403097479</v>
+        <v>37.70828122788181</v>
       </c>
       <c r="AI3">
-        <v>111.9077832769998</v>
+        <v>111.3408194695447</v>
       </c>
       <c r="AJ3">
-        <v>13.88984892514054</v>
+        <v>13.82858826137685</v>
       </c>
       <c r="AK3">
-        <v>32.08728519692211</v>
+        <v>32.18670852082911</v>
       </c>
       <c r="AL3">
-        <v>5.373170396921909</v>
+        <v>5.422504497765389</v>
       </c>
       <c r="AM3">
-        <v>63.65738862473685</v>
+        <v>63.41532287142858</v>
       </c>
       <c r="AN3">
-        <v>0.9928968798765581</v>
+        <v>0.9986111643623635</v>
       </c>
       <c r="AO3">
-        <v>0.5221351611624885</v>
+        <v>0.5231187751533132</v>
       </c>
       <c r="AP3">
-        <v>3.695479573598353</v>
+        <v>3.632896591150048</v>
       </c>
       <c r="AQ3">
-        <v>388.5982309605461</v>
+        <v>391.8995019997425</v>
       </c>
       <c r="AR3">
-        <v>7.514104164140946</v>
+        <v>7.581807154601917</v>
       </c>
       <c r="AS3">
-        <v>50.62729357798163</v>
+        <v>50.85727482678981</v>
       </c>
       <c r="AT3">
-        <v>43.1697857703785</v>
+        <v>43.1323873930947</v>
       </c>
       <c r="AU3">
-        <v>56.83021422962131</v>
+        <v>56.86761260690511</v>
       </c>
       <c r="AV3">
-        <v>66.32277091906731</v>
+        <v>66.31560773480673</v>
       </c>
       <c r="AW3">
-        <v>24.67407407407409</v>
+        <v>24.79060773480665</v>
       </c>
       <c r="AX3">
-        <v>2.353859348198973</v>
+        <v>2.335467128027684</v>
       </c>
       <c r="AY3">
-        <v>29.21873350923483</v>
+        <v>29.25299600532624</v>
       </c>
       <c r="AZ3">
         <v>12.49942255434781</v>
       </c>
       <c r="BA3">
-        <v>15.82277992277992</v>
+        <v>15.88584415584415</v>
       </c>
       <c r="BB3">
-        <v>1.473484876589287</v>
+        <v>1.485193016023491</v>
       </c>
       <c r="BC3">
-        <v>0.7965322052401745</v>
+        <v>0.79937472406181</v>
       </c>
       <c r="BD3">
-        <v>0.9318546378378365</v>
+        <v>0.9339350163934415</v>
       </c>
       <c r="BE3">
-        <v>19.32247344029003</v>
+        <v>19.35985288121163</v>
       </c>
       <c r="BF3">
-        <v>23.97634001588309</v>
+        <v>24.06771189195134</v>
       </c>
       <c r="BG3">
-        <v>47.36773614213502</v>
+        <v>47.50055719303381</v>
       </c>
       <c r="BH3">
-        <v>-676.7139152981849</v>
+        <v>6098.195121951219</v>
       </c>
       <c r="BI3">
-        <v>8.247882763075985</v>
+        <v>8.18112696524703</v>
       </c>
       <c r="BJ3">
-        <v>15.94079436133819</v>
+        <v>15.84813608478716</v>
       </c>
       <c r="BK3">
-        <v>38.02408070485446</v>
+        <v>38.09111318309115</v>
       </c>
       <c r="BL3">
-        <v>55.27177727590948</v>
+        <v>55.49119563462075</v>
       </c>
       <c r="BM3">
-        <v>78.41010039558624</v>
+        <v>78.43767282994612</v>
       </c>
       <c r="BN3">
-        <v>67.08501626339705</v>
+        <v>67.20939096681293</v>
       </c>
       <c r="BO3">
-        <v>29683386.37334372</v>
+        <v>29928081.3510957</v>
       </c>
       <c r="BP3">
-        <v>39.16278571428577</v>
+        <v>39.19096774193554</v>
       </c>
       <c r="BQ3">
-        <v>29.661147327249</v>
+        <v>29.65333333333331</v>
       </c>
       <c r="BR3">
-        <v>2.350847288520821</v>
+        <v>2.331964390976763</v>
       </c>
       <c r="BS3">
-        <v>266360.2491349481</v>
+        <v>224690.7900355872</v>
       </c>
       <c r="BT3">
-        <v>247336.9309701493</v>
+        <v>248001.4873713751</v>
       </c>
       <c r="BU3">
-        <v>1.688752530786277</v>
+        <v>1.648984121891525</v>
       </c>
       <c r="BV3">
-        <v>1.398517291531979</v>
+        <v>1.401247846578884</v>
       </c>
       <c r="BW3">
-        <v>0.8318847769877313</v>
+        <v>0.8321555338859224</v>
       </c>
       <c r="BX3">
-        <v>19.80276260504182</v>
+        <v>19.857737688932</v>
       </c>
       <c r="BY3">
-        <v>63307.44121468006</v>
+        <v>63574.93695900699</v>
       </c>
       <c r="BZ3">
-        <v>38.35067099707724</v>
+        <v>38.25717916054241</v>
       </c>
       <c r="CA3">
-        <v>3.06802278603746</v>
+        <v>3.068677880708566</v>
       </c>
       <c r="CB3">
-        <v>43.62838073690995</v>
+        <v>43.87655127580022</v>
       </c>
       <c r="CC3">
-        <v>51.1307450791855</v>
+        <v>51.3026777913214</v>
       </c>
       <c r="CD3">
-        <v>5341.013574660634</v>
+        <v>5371.394766780432</v>
       </c>
       <c r="CE3">
-        <v>3.070877631853242</v>
+        <v>3.141808265156283</v>
       </c>
       <c r="CF3">
-        <v>24.86416958221856</v>
+        <v>24.76703251190723</v>
       </c>
       <c r="CG3">
-        <v>3.189072336877215</v>
+        <v>3.202848751835536</v>
       </c>
       <c r="CH3">
         <v>2.877923292797007</v>
@@ -1526,31 +1526,31 @@
         <v>2.894761459307764</v>
       </c>
       <c r="CJ3">
-        <v>0.2487538189419521</v>
+        <v>0.2513421181063933</v>
       </c>
       <c r="CK3">
-        <v>0.2467510829723426</v>
+        <v>0.2488619119878604</v>
       </c>
       <c r="CL3">
-        <v>0.2456352636127917</v>
+        <v>0.247594050743657</v>
       </c>
       <c r="CM3">
-        <v>0.2410764343113437</v>
+        <v>0.2434222979367784</v>
       </c>
       <c r="CN3">
-        <v>0.2314901593252109</v>
+        <v>0.2347205707491082</v>
       </c>
       <c r="CO3">
-        <v>0.1815404405853031</v>
+        <v>0.183341467382463</v>
       </c>
       <c r="CP3">
-        <v>0.1000160797555877</v>
+        <v>0.1010248901903368</v>
       </c>
       <c r="CQ3">
-        <v>0.1767165139089886</v>
+        <v>0.1784610379046689</v>
       </c>
       <c r="CR3">
-        <v>0.7420155551878206</v>
+        <v>0.7495820795720495</v>
       </c>
     </row>
     <row r="4" spans="1:96">
@@ -1558,256 +1558,256 @@
         <v>97</v>
       </c>
       <c r="B4">
-        <v>8.615950640334916</v>
+        <v>8.611188709191429</v>
       </c>
       <c r="C4">
-        <v>108.0313948393511</v>
+        <v>108.6345962416109</v>
       </c>
       <c r="D4">
-        <v>18.36318473884262</v>
+        <v>18.46670465476004</v>
       </c>
       <c r="E4">
-        <v>23.16466955055844</v>
+        <v>23.29136056972497</v>
       </c>
       <c r="F4">
-        <v>124.02383690713</v>
+        <v>124.7072051902058</v>
       </c>
       <c r="G4">
-        <v>0.3858294216596529</v>
+        <v>0.3875413032719174</v>
       </c>
       <c r="H4">
-        <v>0.2988595591850879</v>
+        <v>0.3003795005638221</v>
       </c>
       <c r="I4">
-        <v>0.3810167740285648</v>
+        <v>0.382726077307692</v>
       </c>
       <c r="J4">
-        <v>0.4325067257587207</v>
+        <v>0.4341526373051722</v>
       </c>
       <c r="K4">
-        <v>42882298322.8919</v>
+        <v>42997603793.53918</v>
       </c>
       <c r="L4">
-        <v>28.35627746521488</v>
+        <v>28.4258751869085</v>
       </c>
       <c r="M4">
-        <v>19822.92588132057</v>
+        <v>19863.54716128929</v>
       </c>
       <c r="N4">
-        <v>6.184048994754309</v>
+        <v>6.185334669320612</v>
       </c>
       <c r="O4">
-        <v>29.84643992755404</v>
+        <v>29.91132784939131</v>
       </c>
       <c r="P4">
-        <v>395.0715767725044</v>
+        <v>395.7754654136101</v>
       </c>
       <c r="Q4">
-        <v>17.46510690502239</v>
+        <v>17.48460208560604</v>
       </c>
       <c r="R4">
-        <v>20.24388029810054</v>
+        <v>20.28817449845062</v>
       </c>
       <c r="S4">
-        <v>16.783883456328</v>
+        <v>16.82559292991517</v>
       </c>
       <c r="T4">
-        <v>15.16343080998183</v>
+        <v>15.20460787700085</v>
       </c>
       <c r="U4">
-        <v>17.95824283529516</v>
+        <v>17.98106558387384</v>
       </c>
       <c r="V4">
-        <v>14.97172826098087</v>
+        <v>14.98147544582896</v>
       </c>
       <c r="W4">
-        <v>24.34869798676664</v>
+        <v>24.29410436498168</v>
       </c>
       <c r="X4">
-        <v>24.68392804992128</v>
+        <v>24.64708192561633</v>
       </c>
       <c r="Y4">
-        <v>24.30747723087349</v>
+        <v>24.26309700479021</v>
       </c>
       <c r="Z4">
-        <v>1.980133047714904</v>
+        <v>1.982986010985633</v>
       </c>
       <c r="AA4">
-        <v>23.59013985429951</v>
+        <v>23.64520680095421</v>
       </c>
       <c r="AB4">
-        <v>16.56114123242628</v>
+        <v>16.60119147814229</v>
       </c>
       <c r="AC4">
-        <v>19.99677517476009</v>
+        <v>20.04667686092411</v>
       </c>
       <c r="AD4">
-        <v>38.24767090682824</v>
+        <v>38.28765312059615</v>
       </c>
       <c r="AE4">
-        <v>30.19149618398083</v>
+        <v>30.29951120753367</v>
       </c>
       <c r="AF4">
-        <v>36.44682156869787</v>
+        <v>36.57025300364551</v>
       </c>
       <c r="AG4">
-        <v>19.09946024810171</v>
+        <v>19.17547511840565</v>
       </c>
       <c r="AH4">
-        <v>22.26450211408516</v>
+        <v>22.1657382662112</v>
       </c>
       <c r="AI4">
-        <v>499.2926803951073</v>
+        <v>500.6793567765059</v>
       </c>
       <c r="AJ4">
-        <v>13.40071088957861</v>
+        <v>13.4083078583811</v>
       </c>
       <c r="AK4">
-        <v>24.31068536621173</v>
+        <v>24.31201563444131</v>
       </c>
       <c r="AL4">
-        <v>10.7732337108306</v>
+        <v>10.8131047617526</v>
       </c>
       <c r="AM4">
-        <v>279.8393271721606</v>
+        <v>280.5626479406766</v>
       </c>
       <c r="AN4">
-        <v>3.327312248761853</v>
+        <v>3.336253814912962</v>
       </c>
       <c r="AO4">
-        <v>2.623639084517964</v>
+        <v>2.630375373719762</v>
       </c>
       <c r="AP4">
-        <v>9.568594769490181</v>
+        <v>9.520268390433445</v>
       </c>
       <c r="AQ4">
-        <v>1814.131578838093</v>
+        <v>1824.249657930282</v>
       </c>
       <c r="AR4">
-        <v>11.04555119883326</v>
+        <v>11.07667866209952</v>
       </c>
       <c r="AS4">
-        <v>23.83439633702509</v>
+        <v>23.75163150265095</v>
       </c>
       <c r="AT4">
-        <v>24.53118265790776</v>
+        <v>24.62664602150929</v>
       </c>
       <c r="AU4">
-        <v>24.53118265790776</v>
+        <v>24.62664602150928</v>
       </c>
       <c r="AV4">
-        <v>23.51326846611957</v>
+        <v>23.53561186311557</v>
       </c>
       <c r="AW4">
-        <v>22.52257292604002</v>
+        <v>22.55270747141643</v>
       </c>
       <c r="AX4">
-        <v>2.06846258978443</v>
+        <v>2.064859458197209</v>
       </c>
       <c r="AY4">
-        <v>15.96755933453639</v>
+        <v>16.02080192578753</v>
       </c>
       <c r="AZ4">
         <v>12.20170201719099</v>
       </c>
       <c r="BA4">
-        <v>12.7473954685317</v>
+        <v>12.78428284175619</v>
       </c>
       <c r="BB4">
-        <v>1.550381341296436</v>
+        <v>1.532577072483941</v>
       </c>
       <c r="BC4">
-        <v>0.4721767748025796</v>
+        <v>0.4728263833852325</v>
       </c>
       <c r="BD4">
-        <v>0.4765224650586531</v>
+        <v>0.4780710762899084</v>
       </c>
       <c r="BE4">
-        <v>20.27794950248563</v>
+        <v>20.3262854748511</v>
       </c>
       <c r="BF4">
-        <v>28.38779013930416</v>
+        <v>28.44279500252169</v>
       </c>
       <c r="BG4">
-        <v>52.66548456417733</v>
+        <v>52.74927848028301</v>
       </c>
       <c r="BH4">
-        <v>684263.7969246678</v>
+        <v>665061.8700868456</v>
       </c>
       <c r="BI4">
-        <v>6.302287773762557</v>
+        <v>6.216446458727615</v>
       </c>
       <c r="BJ4">
-        <v>11.4582833683136</v>
+        <v>11.38188526925169</v>
       </c>
       <c r="BK4">
-        <v>26.10142267678255</v>
+        <v>26.18190298501979</v>
       </c>
       <c r="BL4">
-        <v>17.45390081596635</v>
+        <v>17.31027114421926</v>
       </c>
       <c r="BM4">
-        <v>7.979405416298799</v>
+        <v>7.9865968001931</v>
       </c>
       <c r="BN4">
-        <v>10.72188533700343</v>
+        <v>10.67490957662997</v>
       </c>
       <c r="BO4">
-        <v>120315168.7146971</v>
+        <v>120971321.7224871</v>
       </c>
       <c r="BP4">
-        <v>9.434011861175154</v>
+        <v>9.438079794671159</v>
       </c>
       <c r="BQ4">
-        <v>16.81533018498966</v>
+        <v>16.8361235915998</v>
       </c>
       <c r="BR4">
-        <v>2.996995204978002</v>
+        <v>2.991084980238388</v>
       </c>
       <c r="BS4">
-        <v>507950.0408068844</v>
+        <v>413256.8255545067</v>
       </c>
       <c r="BT4">
-        <v>1137332.271713995</v>
+        <v>1138859.013682041</v>
       </c>
       <c r="BU4">
-        <v>2.039161150903751</v>
+        <v>1.974272540249484</v>
       </c>
       <c r="BV4">
-        <v>1.380398157094837</v>
+        <v>1.383440494184086</v>
       </c>
       <c r="BW4">
-        <v>0.9335133381763133</v>
+        <v>0.9360851956542753</v>
       </c>
       <c r="BX4">
-        <v>22.90282997375896</v>
+        <v>22.94491460224116</v>
       </c>
       <c r="BY4">
-        <v>177350.985720189</v>
+        <v>177821.4910654636</v>
       </c>
       <c r="BZ4">
-        <v>27.17120058894033</v>
+        <v>27.21556255688796</v>
       </c>
       <c r="CA4">
-        <v>10.53844877238409</v>
+        <v>10.5679892122161</v>
       </c>
       <c r="CB4">
-        <v>46.31693265571835</v>
+        <v>46.33111730827893</v>
       </c>
       <c r="CC4">
-        <v>41.61108026635029</v>
+        <v>41.65922667204854</v>
       </c>
       <c r="CD4">
-        <v>29687.01467249286</v>
+        <v>29768.60140092316</v>
       </c>
       <c r="CE4">
-        <v>6.647691780316078</v>
+        <v>6.607517076499361</v>
       </c>
       <c r="CF4">
-        <v>30.65533154250851</v>
+        <v>30.71798557616499</v>
       </c>
       <c r="CG4">
-        <v>1.442021647840146</v>
+        <v>1.43602292347647</v>
       </c>
       <c r="CH4">
         <v>0.6747998660929311</v>
@@ -1816,31 +1816,31 @@
         <v>0.636668723773655</v>
       </c>
       <c r="CJ4">
-        <v>0.4323255838334596</v>
+        <v>0.4338200944085743</v>
       </c>
       <c r="CK4">
-        <v>0.4311565357963751</v>
+        <v>0.4323900825157497</v>
       </c>
       <c r="CL4">
-        <v>0.4305004265853399</v>
+        <v>0.431652452068275</v>
       </c>
       <c r="CM4">
-        <v>0.4277765596638308</v>
+        <v>0.4291884782675101</v>
       </c>
       <c r="CN4">
-        <v>0.421834277997776</v>
+        <v>0.4238744531283888</v>
       </c>
       <c r="CO4">
-        <v>0.3854963096125217</v>
+        <v>0.3869776937757431</v>
       </c>
       <c r="CP4">
-        <v>0.3000455627435628</v>
+        <v>0.3013861952013628</v>
       </c>
       <c r="CQ4">
-        <v>0.3814592841494729</v>
+        <v>0.3829315223807337</v>
       </c>
       <c r="CR4">
-        <v>1.189494053105377</v>
+        <v>1.193169684721699</v>
       </c>
     </row>
     <row r="5" spans="1:96">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>-10.9551494210987</v>
+        <v>-9.080638464750979</v>
       </c>
       <c r="BC5">
         <v>0.008</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>-5386986</v>
+        <v>-3266243</v>
       </c>
       <c r="BI5">
         <v>0.140000000596046</v>
@@ -2165,91 +2165,91 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-1583776698.87202</v>
+        <v>-1594079519.06891</v>
       </c>
       <c r="L6">
-        <v>28.51096803773119</v>
+        <v>28.4761639081223</v>
       </c>
       <c r="M6">
-        <v>991.6763862756237</v>
+        <v>991.614424124905</v>
       </c>
       <c r="N6">
-        <v>-0.1166355053283539</v>
+        <v>-0.1223706673375631</v>
       </c>
       <c r="O6">
-        <v>22.14569170904468</v>
+        <v>22.1355986308901</v>
       </c>
       <c r="P6">
-        <v>1.859583481965885</v>
+        <v>1.85974379351109</v>
       </c>
       <c r="Q6">
-        <v>2.167972497482302</v>
+        <v>2.12165</v>
       </c>
       <c r="R6">
-        <v>3.90016</v>
+        <v>3.8631</v>
       </c>
       <c r="S6">
-        <v>3.98116</v>
+        <v>3.9522175</v>
       </c>
       <c r="T6">
-        <v>1.07116</v>
+        <v>1.07684</v>
       </c>
       <c r="U6">
         <v>2.986565003204345</v>
       </c>
       <c r="V6">
-        <v>2.863745</v>
+        <v>2.870705052986145</v>
       </c>
       <c r="W6">
-        <v>32.350425</v>
+        <v>32.6780725</v>
       </c>
       <c r="X6">
-        <v>34.408795</v>
+        <v>34.6041725</v>
       </c>
       <c r="Y6">
-        <v>33.00275500000001</v>
+        <v>33.29469</v>
       </c>
       <c r="Z6">
-        <v>3.1663875</v>
+        <v>3.15784</v>
       </c>
       <c r="AA6">
-        <v>65.50569</v>
+        <v>65.3424723010254</v>
       </c>
       <c r="AB6">
-        <v>79.96993406066895</v>
+        <v>79.8716125488281</v>
       </c>
       <c r="AC6">
-        <v>72.74460500000001</v>
+        <v>72.67546999999999</v>
       </c>
       <c r="AD6">
-        <v>20.4075</v>
+        <v>19.97</v>
       </c>
       <c r="AE6">
-        <v>67.40787240075683</v>
+        <v>66.97499999999999</v>
       </c>
       <c r="AF6">
-        <v>45.9680406384058</v>
+        <v>45.1815230672789</v>
       </c>
       <c r="AG6">
-        <v>89.82870916027832</v>
+        <v>89.54411920551749</v>
       </c>
       <c r="AH6">
-        <v>19.37763110575194</v>
+        <v>19.34219391192503</v>
       </c>
       <c r="AI6">
-        <v>3.137116712750642</v>
+        <v>3.12747290555651</v>
       </c>
       <c r="AJ6">
-        <v>3.092978767733015</v>
+        <v>3.069941740190706</v>
       </c>
       <c r="AK6">
-        <v>10.71040902969337</v>
+        <v>10.90468196753719</v>
       </c>
       <c r="AL6">
-        <v>0.528235978</v>
+        <v>0.529163592</v>
       </c>
       <c r="AM6">
-        <v>1.9336235</v>
+        <v>1.908712</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2261,31 +2261,31 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>30.60261363832155</v>
+        <v>30.26231308948701</v>
       </c>
       <c r="AR6">
-        <v>1.249433784</v>
+        <v>1.27432087</v>
       </c>
       <c r="AS6">
-        <v>31.925</v>
+        <v>32.7</v>
       </c>
       <c r="AT6">
-        <v>23.344</v>
+        <v>23.21974999999999</v>
       </c>
       <c r="AU6">
-        <v>35.877</v>
+        <v>35.79949999999999</v>
       </c>
       <c r="AV6">
-        <v>44</v>
+        <v>43.975</v>
       </c>
       <c r="AW6">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AX6">
         <v>0.8</v>
       </c>
       <c r="AY6">
-        <v>16.575</v>
+        <v>16.45</v>
       </c>
       <c r="AZ6">
         <v>2.5</v>
@@ -2294,7 +2294,7 @@
         <v>4.6</v>
       </c>
       <c r="BB6">
-        <v>0.4871825063990195</v>
+        <v>0.4939816619759615</v>
       </c>
       <c r="BC6">
         <v>0.41</v>
@@ -2303,55 +2303,55 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="BE6">
-        <v>2.2258664975</v>
+        <v>2.1879500865</v>
       </c>
       <c r="BF6">
-        <v>0.8599181025</v>
+        <v>0.8998674250000001</v>
       </c>
       <c r="BG6">
-        <v>0.469670919</v>
+        <v>0.480426209</v>
       </c>
       <c r="BH6">
-        <v>-120040</v>
+        <v>-120003</v>
       </c>
       <c r="BI6">
-        <v>3.649999976158145</v>
+        <v>3.62150001525879</v>
       </c>
       <c r="BJ6">
-        <v>7.250499963760375</v>
+        <v>7.22099995613098</v>
       </c>
       <c r="BK6">
-        <v>14.65900004655121</v>
+        <v>14.64199987053872</v>
       </c>
       <c r="BL6">
-        <v>45.54874992370607</v>
+        <v>45.7070007324219</v>
       </c>
       <c r="BM6">
-        <v>74.67000007629392</v>
+        <v>74.75599670410161</v>
       </c>
       <c r="BN6">
-        <v>60.8407497406006</v>
+        <v>61.1269989013672</v>
       </c>
       <c r="BO6">
-        <v>599656.5</v>
+        <v>570046.5</v>
       </c>
       <c r="BP6">
-        <v>31.7</v>
+        <v>31.75</v>
       </c>
       <c r="BQ6">
-        <v>17.15</v>
+        <v>17.1</v>
       </c>
       <c r="BR6">
-        <v>1.11270876891735</v>
+        <v>1.109650557833635</v>
       </c>
       <c r="BS6">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="BT6">
         <v>1100</v>
       </c>
       <c r="BU6">
-        <v>0.5134673014563824</v>
+        <v>0.5119794804035218</v>
       </c>
       <c r="BV6">
         <v>0.41</v>
@@ -2455,121 +2455,121 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-209202342.599654</v>
+        <v>-210650459.750174</v>
       </c>
       <c r="L7">
-        <v>41.04590323107652</v>
+        <v>41.06469435989612</v>
       </c>
       <c r="M7">
-        <v>3571.182697234015</v>
+        <v>3606.070434774747</v>
       </c>
       <c r="N7">
-        <v>2.093722196298287</v>
+        <v>2.092411759919983</v>
       </c>
       <c r="O7">
-        <v>33.91372954209813</v>
+        <v>33.98014014549663</v>
       </c>
       <c r="P7">
-        <v>4.12268786503577</v>
+        <v>4.11065084723383</v>
       </c>
       <c r="Q7">
-        <v>6.793445</v>
+        <v>6.736689999999999</v>
       </c>
       <c r="R7">
-        <v>9.10445</v>
+        <v>8.82425022125244</v>
       </c>
       <c r="S7">
-        <v>9.387785000000001</v>
+        <v>9.300070236816406</v>
       </c>
       <c r="T7">
-        <v>4.12855</v>
+        <v>4.18005992172241</v>
       </c>
       <c r="U7">
         <v>7.61808013916016</v>
       </c>
       <c r="V7">
-        <v>7.17947</v>
+        <v>7.20488</v>
       </c>
       <c r="W7">
-        <v>54.19674</v>
+        <v>54.97206</v>
       </c>
       <c r="X7">
-        <v>58.07131</v>
+        <v>58.18912</v>
       </c>
       <c r="Y7">
-        <v>55.801555</v>
+        <v>55.97171</v>
       </c>
       <c r="Z7">
-        <v>4.311235</v>
+        <v>4.30313515663147</v>
       </c>
       <c r="AA7">
-        <v>89.67712</v>
+        <v>89.687105</v>
       </c>
       <c r="AB7">
-        <v>93.00950499999999</v>
+        <v>93.00997</v>
       </c>
       <c r="AC7">
-        <v>91.18277499999999</v>
+        <v>91.18419</v>
       </c>
       <c r="AD7">
-        <v>77.80000000000001</v>
+        <v>77.42</v>
       </c>
       <c r="AE7">
-        <v>99.279411315918</v>
+        <v>99.2192818979492</v>
       </c>
       <c r="AF7">
-        <v>98.84363280800839</v>
+        <v>98.68950120800091</v>
       </c>
       <c r="AG7">
-        <v>99.88394130126954</v>
+        <v>99.85534286499026</v>
       </c>
       <c r="AH7">
-        <v>38.56309140618693</v>
+        <v>38.48064422237314</v>
       </c>
       <c r="AI7">
-        <v>14.1642786726445</v>
+        <v>14</v>
       </c>
       <c r="AJ7">
-        <v>10.21213643414276</v>
+        <v>10.17441860465116</v>
       </c>
       <c r="AK7">
-        <v>31.06791620365744</v>
+        <v>31.10589057811314</v>
       </c>
       <c r="AL7">
-        <v>1.58750854</v>
+        <v>1.595681828</v>
       </c>
       <c r="AM7">
-        <v>8.051914</v>
+        <v>7.899253</v>
       </c>
       <c r="AN7">
-        <v>0.0007722101759830665</v>
+        <v>0.00102003635278361</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.00116442204965078</v>
+        <v>0.000942987200313324</v>
       </c>
       <c r="AQ7">
-        <v>80.61816815753423</v>
+        <v>80.07484826319673</v>
       </c>
       <c r="AR7">
-        <v>3.629173432</v>
+        <v>3.6358285985</v>
       </c>
       <c r="AS7">
         <v>52.8</v>
       </c>
       <c r="AT7">
-        <v>43.713</v>
+        <v>43.5605</v>
       </c>
       <c r="AU7">
-        <v>56.287</v>
+        <v>56.4395</v>
       </c>
       <c r="AV7">
-        <v>74</v>
+        <v>73.95</v>
       </c>
       <c r="AW7">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="AX7">
         <v>1.8</v>
@@ -2581,49 +2581,49 @@
         <v>7.45</v>
       </c>
       <c r="BA7">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="BB7">
-        <v>1.35432386139041</v>
+        <v>1.35769728766652</v>
       </c>
       <c r="BC7">
-        <v>0.745</v>
+        <v>0.75</v>
       </c>
       <c r="BD7">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="BE7">
-        <v>12.18139388</v>
+        <v>12.158172855</v>
       </c>
       <c r="BF7">
-        <v>9.600788431000002</v>
+        <v>9.655086541999999</v>
       </c>
       <c r="BG7">
-        <v>23.28555917</v>
+        <v>23.38592942</v>
       </c>
       <c r="BH7">
-        <v>-9124</v>
+        <v>-9004</v>
       </c>
       <c r="BI7">
-        <v>6.7189998626709</v>
+        <v>6.66200017929077</v>
       </c>
       <c r="BJ7">
-        <v>13.1940002441406</v>
+        <v>13.0979995727539</v>
       </c>
       <c r="BK7">
-        <v>31.90299940109251</v>
+        <v>31.82399916648868</v>
       </c>
       <c r="BL7">
-        <v>57.82050132751465</v>
+        <v>58.0250015258789</v>
       </c>
       <c r="BM7">
-        <v>79.51749801635739</v>
+        <v>79.5559997558594</v>
       </c>
       <c r="BN7">
-        <v>68.32749938964845</v>
+        <v>68.431999206543</v>
       </c>
       <c r="BO7">
-        <v>5244678</v>
+        <v>5267900</v>
       </c>
       <c r="BP7">
         <v>37.2</v>
@@ -2632,37 +2632,37 @@
         <v>26.2</v>
       </c>
       <c r="BR7">
-        <v>1.68412000156625</v>
+        <v>1.679459431221495</v>
       </c>
       <c r="BS7">
-        <v>83000</v>
+        <v>75000</v>
       </c>
       <c r="BT7">
-        <v>8050</v>
+        <v>8100</v>
       </c>
       <c r="BU7">
-        <v>1.034921059044128</v>
+        <v>1.0279593271591</v>
       </c>
       <c r="BV7">
-        <v>0.963</v>
+        <v>0.967</v>
       </c>
       <c r="BW7">
         <v>0.574</v>
       </c>
       <c r="BX7">
-        <v>11.923</v>
+        <v>12.07</v>
       </c>
       <c r="BY7">
         <v>10025</v>
       </c>
       <c r="BZ7">
-        <v>35.678</v>
+        <v>35.49</v>
       </c>
       <c r="CA7">
         <v>0</v>
       </c>
       <c r="CB7">
-        <v>13.413</v>
+        <v>14.68</v>
       </c>
       <c r="CC7">
         <v>42.9055</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2742,67 +2742,67 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>623543668.7033255</v>
+        <v>608864074.422146</v>
       </c>
       <c r="L8">
-        <v>58.02666090159466</v>
+        <v>58.07205117576123</v>
       </c>
       <c r="M8">
-        <v>14809.98878972523</v>
+        <v>15043.11756395913</v>
       </c>
       <c r="N8">
-        <v>4.334422333673388</v>
+        <v>4.332535438015526</v>
       </c>
       <c r="O8">
-        <v>50.31235959298089</v>
+        <v>50.51665011063332</v>
       </c>
       <c r="P8">
-        <v>8.738180133152071</v>
+        <v>8.72169386091733</v>
       </c>
       <c r="Q8">
-        <v>17.02281</v>
+        <v>16.91905813766478</v>
       </c>
       <c r="R8">
-        <v>22.505859375</v>
+        <v>21.96582</v>
       </c>
       <c r="S8">
-        <v>20.90736517028807</v>
+        <v>20.8066575</v>
       </c>
       <c r="T8">
-        <v>12.1455</v>
+        <v>12.3134775</v>
       </c>
       <c r="U8">
-        <v>18.45192</v>
+        <v>18.4840000189209</v>
       </c>
       <c r="V8">
-        <v>16.650665</v>
+        <v>16.67481457244875</v>
       </c>
       <c r="W8">
-        <v>72.55486999999999</v>
+        <v>72.5969875</v>
       </c>
       <c r="X8">
-        <v>77.28494000000001</v>
+        <v>77.3387875</v>
       </c>
       <c r="Y8">
-        <v>75.08295750000001</v>
+        <v>75.19131</v>
       </c>
       <c r="Z8">
-        <v>5.4448225</v>
+        <v>5.4471475</v>
       </c>
       <c r="AA8">
-        <v>94.98268890380859</v>
+        <v>94.96960972595215</v>
       </c>
       <c r="AB8">
-        <v>97.47078999999999</v>
+        <v>97.47946</v>
       </c>
       <c r="AC8">
-        <v>96.17201750000001</v>
+        <v>96.176705</v>
       </c>
       <c r="AD8">
-        <v>97.345</v>
+        <v>97.22</v>
       </c>
       <c r="AE8">
         <v>100</v>
@@ -2814,13 +2814,13 @@
         <v>100</v>
       </c>
       <c r="AH8">
-        <v>55.48722834797206</v>
+        <v>55.23234220356497</v>
       </c>
       <c r="AI8">
-        <v>34.03727015558702</v>
+        <v>33.1520611874514</v>
       </c>
       <c r="AJ8">
-        <v>19.6875</v>
+        <v>19.51113686874201</v>
       </c>
       <c r="AK8">
         <v>49.97058756211236</v>
@@ -2829,115 +2829,115 @@
         <v>3.608969789</v>
       </c>
       <c r="AM8">
-        <v>30.2170525</v>
+        <v>29.86</v>
       </c>
       <c r="AN8">
-        <v>0.268400086152711</v>
+        <v>0.27250827536269</v>
       </c>
       <c r="AO8">
-        <v>0.09883176882730868</v>
+        <v>0.09705448863788485</v>
       </c>
       <c r="AP8">
-        <v>1.107313696008365</v>
+        <v>1.07044575333249</v>
       </c>
       <c r="AQ8">
-        <v>195.4602992659695</v>
+        <v>197.9862544170934</v>
       </c>
       <c r="AR8">
-        <v>7.672997363</v>
+        <v>8.34022036475</v>
       </c>
       <c r="AS8">
         <v>68.90000000000001</v>
       </c>
       <c r="AT8">
-        <v>64.12299999999999</v>
+        <v>64.20049999999999</v>
       </c>
       <c r="AU8">
-        <v>76.65600000000001</v>
+        <v>76.78025000000001</v>
       </c>
       <c r="AV8">
-        <v>86.3</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="AW8">
-        <v>45.2</v>
+        <v>45.625</v>
       </c>
       <c r="AX8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AY8">
-        <v>40.875</v>
+        <v>40.9</v>
       </c>
       <c r="AZ8">
         <v>18.225</v>
       </c>
       <c r="BA8">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="BB8">
-        <v>2.41710347040944</v>
+        <v>2.417385519307565</v>
       </c>
       <c r="BC8">
-        <v>1.12</v>
+        <v>1.1225</v>
       </c>
       <c r="BD8">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BE8">
-        <v>31.20775617</v>
+        <v>31.38113765</v>
       </c>
       <c r="BF8">
-        <v>42.38</v>
+        <v>42.76382778</v>
       </c>
       <c r="BG8">
-        <v>91.28509793000001</v>
+        <v>91.60973889</v>
       </c>
       <c r="BH8">
-        <v>42330</v>
+        <v>42357.75</v>
       </c>
       <c r="BI8">
-        <v>11.1424999237061</v>
+        <v>11.10150003433225</v>
       </c>
       <c r="BJ8">
-        <v>21.5009994506836</v>
+        <v>21.4434995651245</v>
       </c>
       <c r="BK8">
-        <v>58.36600041389467</v>
+        <v>58.544499874115</v>
       </c>
       <c r="BL8">
-        <v>67.34300041198729</v>
+        <v>67.4619979858398</v>
       </c>
       <c r="BM8">
-        <v>83.6740036010742</v>
+        <v>83.69000244140631</v>
       </c>
       <c r="BN8">
-        <v>73.77700042724611</v>
+        <v>73.8649978637695</v>
       </c>
       <c r="BO8">
-        <v>18054888</v>
+        <v>18218179</v>
       </c>
       <c r="BP8">
-        <v>46.2</v>
+        <v>46.25</v>
       </c>
       <c r="BQ8">
-        <v>40.05</v>
+        <v>40.1</v>
       </c>
       <c r="BR8">
-        <v>2.72669253177032</v>
+        <v>2.705400703807488</v>
       </c>
       <c r="BS8">
-        <v>280000</v>
+        <v>246000</v>
       </c>
       <c r="BT8">
         <v>52000</v>
       </c>
       <c r="BU8">
-        <v>1.96339077337506</v>
+        <v>1.940326297081826</v>
       </c>
       <c r="BV8">
         <v>2.038</v>
       </c>
       <c r="BW8">
-        <v>1.035</v>
+        <v>1.041</v>
       </c>
       <c r="BX8">
         <v>33.976</v>
@@ -2964,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="CF8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CG8">
         <v>4</v>
@@ -2976,7 +2976,7 @@
         <v>3.5</v>
       </c>
       <c r="CJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>117.34982320869</v>
       </c>
       <c r="BS9">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="BT9">
         <v>18660000</v>
